--- a/document/KELOMPOK4_PROYEK2.xlsx
+++ b/document/KELOMPOK4_PROYEK2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andit\Documents\Kuliah\Semester3\proyek_2\UAS\UAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andit\Desktop\proyek_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D7EB43-4465-4F68-83A4-2BB4F6CCB653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2F8563-6FD8-4CC6-92CC-08E5EB56F7DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="pembagian tugas" sheetId="1" r:id="rId1"/>
     <sheet name="burndown chart" sheetId="4" r:id="rId2"/>
     <sheet name="Chart1" sheetId="6" r:id="rId3"/>
-    <sheet name="Pelaksanaan" sheetId="5" r:id="rId4"/>
+    <sheet name="Pelaksanaan PEMBAGIAN TUGAS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>Pembagian tugas</t>
   </si>
@@ -165,9 +165,6 @@
     <t>kode</t>
   </si>
   <si>
-    <t>Realisasi</t>
-  </si>
-  <si>
     <t>MDTA Al-Muttaqien</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>A4</t>
   </si>
   <si>
-    <t>Time</t>
-  </si>
-  <si>
     <t>Pembuatan Perpustakaan berbasis Web</t>
   </si>
   <si>
@@ -222,15 +216,6 @@
     <t>Bulan Tersedia</t>
   </si>
   <si>
-    <t>Item Pekerjaan Yang Diselesaikan</t>
-  </si>
-  <si>
-    <t>Kegiatan</t>
-  </si>
-  <si>
-    <t>Pembuatan Kelompok + Penentuan Ide +Pembagian  tugas + Penentuan Mitra</t>
-  </si>
-  <si>
     <t>Andita Farah Salsabila</t>
   </si>
   <si>
@@ -238,21 +223,6 @@
   </si>
   <si>
     <t>Muhammad Ridzal Maulana</t>
-  </si>
-  <si>
-    <t>Minggu 1</t>
-  </si>
-  <si>
-    <t>Minggu 2</t>
-  </si>
-  <si>
-    <t>Minggu3</t>
-  </si>
-  <si>
-    <t>Fiksasi ide ,mitra,</t>
-  </si>
-  <si>
-    <t>Gagasan ide,mitra,pembagian tugas anggota</t>
   </si>
   <si>
     <t xml:space="preserve">       </t>
@@ -503,7 +473,7 @@
       <charset val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,12 +536,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -619,7 +583,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -693,37 +657,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -760,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -775,18 +708,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -822,12 +750,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -840,21 +762,21 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,8 +787,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,22 +796,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,11 +839,8 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,37 +851,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1741,7 +1664,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{D07D584D-70DC-4AF9-985F-E6FEA05401F0}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="92" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1800,7 +1723,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662276" cy="6279931"/>
+    <xdr:ext cx="8663609" cy="6286500"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2149,36 +2072,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
+      <c r="A2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
+      <c r="A4" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -2189,151 +2112,151 @@
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="67">
         <v>4</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="68" t="s">
+      <c r="C8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>2</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>3</v>
+      </c>
+      <c r="B10" s="69"/>
+      <c r="C10" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
-        <v>2</v>
-      </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
-        <v>3</v>
-      </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="67"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="27" t="s">
+      <c r="H13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="22" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2346,323 +2269,323 @@
         <v>44</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="29" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="30" t="s">
+      <c r="H14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="K14" s="49" t="s">
+      <c r="K14" s="42" t="s">
         <v>38</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" s="28" t="s">
+      <c r="N14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="29" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="30" t="s">
+      <c r="H15" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="I15" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="48" t="s">
+      <c r="J15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="42" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="28" t="s">
+      <c r="N15" s="23" t="s">
         <v>14</v>
       </c>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="C16" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K16" s="42" t="s">
         <v>40</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="28" t="s">
+      <c r="N16" s="23" t="s">
         <v>13</v>
       </c>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K17" s="42" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="23" t="s">
         <v>15</v>
       </c>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="28" t="s">
+      <c r="F18" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="30" t="s">
+      <c r="I18" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="48" t="s">
+      <c r="J18" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="K18" s="49" t="s">
+      <c r="K18" s="42" t="s">
         <v>42</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="23" t="s">
         <v>19</v>
       </c>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="29" t="s">
+      <c r="E19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="42"/>
       <c r="L19" s="5"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="53"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="M20" s="9"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="39"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B23" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="41"/>
+      <c r="B23" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="34"/>
     </row>
     <row r="24" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="41"/>
+      <c r="B24" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="34"/>
     </row>
     <row r="25" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="41"/>
+      <c r="B25" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="34"/>
     </row>
     <row r="26" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="41"/>
+      <c r="B26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="34"/>
     </row>
     <row r="27" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="41"/>
+      <c r="B27" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="34"/>
     </row>
     <row r="28" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C28" s="41"/>
+      <c r="B28" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="34"/>
     </row>
     <row r="29" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="41"/>
+      <c r="B29" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="34"/>
     </row>
     <row r="30" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="39" t="s">
-        <v>85</v>
+      <c r="B30" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2694,11 +2617,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>63</v>
+      <c r="B1" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2706,7 +2629,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2719,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M2253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S46" sqref="S46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2737,110 +2660,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>45</v>
-      </c>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
       <c r="F2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="F4"/>
-      <c r="H4" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="H4" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>73</v>
-      </c>
+      <c r="A5" s="82"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="59" t="s">
-        <v>93</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
+      <c r="F5" s="45"/>
+      <c r="H5" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="15"/>
-      <c r="F6" s="52"/>
-      <c r="H6" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
+      <c r="C6" s="8"/>
+      <c r="F6" s="45"/>
+      <c r="H6" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="83"/>
-      <c r="C7" s="14"/>
-      <c r="F7" s="52"/>
-      <c r="H7" s="45" t="s">
+      <c r="C7" s="84"/>
+      <c r="F7" s="45"/>
+      <c r="H7" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="10"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
+      <c r="F8" s="45"/>
+      <c r="H8" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="78"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="11"/>
-      <c r="F9" s="52"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="84"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="F10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="F11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -2854,7 +2763,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="F15"/>
     </row>
@@ -2916,455 +2825,455 @@
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="I28" s="57" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="57" t="s">
-        <v>89</v>
-      </c>
-      <c r="K28" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28" s="62"/>
+      <c r="G28" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="K28" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="M28" s="55"/>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="F29" s="50">
+      <c r="F29" s="43">
         <v>1</v>
       </c>
-      <c r="G29" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="46" t="s">
-        <v>108</v>
+      <c r="G29" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="39" t="s">
+        <v>98</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="F30" s="50">
+      <c r="F30" s="43">
         <v>2</v>
       </c>
-      <c r="G30" s="53" t="s">
-        <v>117</v>
+      <c r="G30" s="46" t="s">
+        <v>107</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="46" t="s">
+      <c r="J30" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="F31" s="50">
+      <c r="F31" s="43">
         <v>3</v>
       </c>
-      <c r="G31" s="29" t="s">
-        <v>113</v>
+      <c r="G31" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K31" s="61" t="s">
-        <v>114</v>
+      <c r="J31" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K31" s="54" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="F32" s="50">
+      <c r="F32" s="43">
         <v>4</v>
       </c>
-      <c r="G32" s="29" t="s">
-        <v>110</v>
+      <c r="G32" s="24" t="s">
+        <v>100</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="78" t="s">
-        <v>115</v>
+      <c r="J32" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="71" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="F33" s="50">
+      <c r="F33" s="43">
         <v>5</v>
       </c>
-      <c r="G33" s="54" t="s">
-        <v>104</v>
+      <c r="G33" s="47" t="s">
+        <v>94</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K33" s="78"/>
+      <c r="J33" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="71"/>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="F34" s="50">
+      <c r="F34" s="43">
         <v>6</v>
       </c>
-      <c r="G34" s="48" t="s">
-        <v>96</v>
+      <c r="G34" s="41" t="s">
+        <v>86</v>
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-      <c r="J34" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K34" s="78"/>
+      <c r="J34" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="71"/>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="F35" s="50">
+      <c r="F35" s="43">
         <v>7</v>
       </c>
-      <c r="G35" s="54" t="s">
-        <v>97</v>
+      <c r="G35" s="47" t="s">
+        <v>87</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35" s="79" t="s">
-        <v>116</v>
+      <c r="J35" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="75" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F36" s="50">
+      <c r="F36" s="43">
         <v>8</v>
       </c>
-      <c r="G36" s="54" t="s">
-        <v>98</v>
+      <c r="G36" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36" s="80"/>
+      <c r="J36" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="79"/>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F37" s="50">
+      <c r="F37" s="43">
         <v>9</v>
       </c>
-      <c r="G37" s="55" t="s">
-        <v>105</v>
+      <c r="G37" s="48" t="s">
+        <v>95</v>
       </c>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K37" s="80"/>
+      <c r="J37" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="79"/>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F38" s="50">
+      <c r="F38" s="43">
         <v>10</v>
       </c>
-      <c r="G38" s="29" t="s">
-        <v>119</v>
+      <c r="G38" s="24" t="s">
+        <v>109</v>
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K38" s="80"/>
+      <c r="J38" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="79"/>
     </row>
     <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F39" s="50">
+      <c r="F39" s="43">
         <v>11</v>
       </c>
-      <c r="G39" s="55" t="s">
-        <v>107</v>
+      <c r="G39" s="48" t="s">
+        <v>97</v>
       </c>
       <c r="H39" s="2"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K39" s="80"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F40" s="50">
+      <c r="F40" s="43">
         <v>12</v>
       </c>
-      <c r="G40" s="56" t="s">
-        <v>99</v>
+      <c r="G40" s="49" t="s">
+        <v>89</v>
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-      <c r="J40" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K40" s="81"/>
+      <c r="J40" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="76"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F41" s="50">
+      <c r="F41" s="43">
         <v>13</v>
       </c>
-      <c r="G41" s="54" t="s">
-        <v>100</v>
+      <c r="G41" s="47" t="s">
+        <v>90</v>
       </c>
       <c r="H41" s="2"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K41" s="75" t="s">
+      <c r="I41" s="39"/>
+      <c r="J41" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="72" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F42" s="43">
+        <v>14</v>
+      </c>
+      <c r="G42" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="73"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F43" s="43">
+        <v>15</v>
+      </c>
+      <c r="G43" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="2"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K43" s="73"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F44" s="43">
+        <v>16</v>
+      </c>
+      <c r="G44" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="74"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F45" s="43">
+        <v>17</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K45" s="77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F46" s="43">
+        <v>18</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" s="78"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F47" s="43">
+        <v>19</v>
+      </c>
+      <c r="G47" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F48" s="43">
+        <v>20</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="H48" s="39"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K48" s="73"/>
+    </row>
+    <row r="49" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F49" s="43">
+        <v>21</v>
+      </c>
+      <c r="G49" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" s="39"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" s="73"/>
+    </row>
+    <row r="50" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F50" s="43">
+        <v>22</v>
+      </c>
+      <c r="G50" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" s="39"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="73"/>
+    </row>
+    <row r="51" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F51" s="43">
+        <v>23</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51" s="39"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="73"/>
+    </row>
+    <row r="52" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F52" s="43">
+        <v>24</v>
+      </c>
+      <c r="G52" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="H52" s="39"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52" s="73"/>
+    </row>
+    <row r="53" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F53" s="43">
+        <v>25</v>
+      </c>
+      <c r="G53" s="41" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F42" s="50">
-        <v>14</v>
-      </c>
-      <c r="G42" s="63" t="s">
-        <v>124</v>
-      </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="76"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F43" s="50">
-        <v>15</v>
-      </c>
-      <c r="G43" s="54" t="s">
-        <v>101</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K43" s="76"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F44" s="50">
-        <v>16</v>
-      </c>
-      <c r="G44" s="54" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K44" s="77"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F45" s="50">
-        <v>17</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K45" s="73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F46" s="50">
-        <v>18</v>
-      </c>
-      <c r="G46" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K46" s="74"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F47" s="50">
-        <v>19</v>
-      </c>
-      <c r="G47" s="86" t="s">
-        <v>129</v>
-      </c>
-      <c r="H47" s="46"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K47" s="75" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F48" s="50">
-        <v>20</v>
-      </c>
-      <c r="G48" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H48" s="46"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K48" s="76"/>
-    </row>
-    <row r="49" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F49" s="50">
-        <v>21</v>
-      </c>
-      <c r="G49" s="63" t="s">
-        <v>131</v>
-      </c>
-      <c r="H49" s="46"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K49" s="76"/>
-    </row>
-    <row r="50" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F50" s="50">
-        <v>22</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H50" s="46"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K50" s="76"/>
-    </row>
-    <row r="51" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F51" s="50">
-        <v>23</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="H51" s="46"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K51" s="76"/>
-    </row>
-    <row r="52" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F52" s="50">
-        <v>24</v>
-      </c>
-      <c r="G52" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" s="46"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K52" s="76"/>
-    </row>
-    <row r="53" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F53" s="50">
-        <v>25</v>
-      </c>
-      <c r="G53" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" s="46"/>
+      <c r="H53" s="39"/>
       <c r="I53" s="2"/>
-      <c r="J53" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K53" s="77"/>
+      <c r="J53" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" s="74"/>
     </row>
     <row r="54" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F54" s="50">
+      <c r="F54" s="43">
         <v>26</v>
       </c>
-      <c r="G54" s="29" t="s">
-        <v>106</v>
+      <c r="G54" s="24" t="s">
+        <v>96</v>
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-      <c r="J54" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K54" s="64" t="s">
-        <v>127</v>
+      <c r="J54" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K54" s="57" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="6:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="F55" s="88">
+      <c r="F55" s="60">
         <v>27</v>
       </c>
-      <c r="G55" s="89" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" s="87"/>
-      <c r="I55" s="87"/>
-      <c r="J55" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K55" s="79" t="s">
-        <v>135</v>
+      <c r="G55" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="59"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="75" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F56" s="88">
+      <c r="F56" s="60">
         <v>28</v>
       </c>
-      <c r="G56" s="90" t="s">
-        <v>134</v>
-      </c>
-      <c r="H56" s="87"/>
-      <c r="I56" s="87"/>
-      <c r="J56" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K56" s="81"/>
+      <c r="G56" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="59"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="K56" s="76"/>
     </row>
     <row r="57" spans="6:11" x14ac:dyDescent="0.3">
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F58" s="6"/>
@@ -12157,6 +12066,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010039BFDF556BB88E4AA25900698BA1D2EA" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="390ad958ac69788edf09d2589b9186f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8404895f7d44761b773ad0796dd4d87c">
     <xsd:element name="properties">
@@ -12270,15 +12188,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -12286,6 +12195,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50200759-DDA1-4F0A-89F4-D12F34C533A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8C883D4-FAE9-44EF-BA60-F1315B8F31DE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -12297,14 +12214,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50200759-DDA1-4F0A-89F4-D12F34C533A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
